--- a/April'21/11.04.2021/Daily Sales Info.xlsx
+++ b/April'21/11.04.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="64">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Date:10/04/2021</t>
+  </si>
+  <si>
+    <t>Date: 11/04/2021</t>
   </si>
 </sst>
 </file>
@@ -13191,7 +13194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14853,11 +14856,1701 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2">
+        <v>1553928633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <f>'9'!D29</f>
+        <v>538683</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'9'!E29</f>
+        <v>4560</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'9'!F29</f>
+        <v>8570</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'9'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'9'!H29</f>
+        <v>23620</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'9'!I29</f>
+        <v>1001</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'9'!J29</f>
+        <v>624</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'9'!K29</f>
+        <v>344</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'9'!L29</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>311688</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+    </row>
+    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1908446134</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21">
+        <v>22000</v>
+      </c>
+      <c r="E7" s="22">
+        <v>50</v>
+      </c>
+      <c r="F7" s="22">
+        <v>100</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22">
+        <v>80</v>
+      </c>
+      <c r="I7" s="23">
+        <v>4</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="20">
+        <f>D7+E7*20+F7*10+G7*9+H7*9</f>
+        <v>24720</v>
+      </c>
+      <c r="N7" s="24">
+        <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
+        <v>25484</v>
+      </c>
+      <c r="O7" s="25">
+        <f>M7*2.75%</f>
+        <v>679.8</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26">
+        <v>124</v>
+      </c>
+      <c r="R7" s="24">
+        <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
+        <v>24680.2</v>
+      </c>
+      <c r="S7" s="25">
+        <f>M7*0.95%</f>
+        <v>234.84</v>
+      </c>
+      <c r="T7" s="27">
+        <f>S7-Q7</f>
+        <v>110.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1908446135</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="29">
+        <v>9757</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
+        <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
+        <v>9757</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
+        <v>9757</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
+        <v>268.3175</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26">
+        <v>88</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
+        <v>9400.6825000000008</v>
+      </c>
+      <c r="S8" s="25">
+        <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
+        <v>92.691499999999991</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
+        <v>4.6914999999999907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1908446136</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="29">
+        <v>25622</v>
+      </c>
+      <c r="E9" s="30">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
+        <v>500</v>
+      </c>
+      <c r="I9" s="20">
+        <v>10</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20">
+        <f t="shared" si="0"/>
+        <v>30722</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="1"/>
+        <v>32632</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="2"/>
+        <v>844.85500000000002</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26">
+        <v>157</v>
+      </c>
+      <c r="R9" s="24">
+        <f t="shared" si="3"/>
+        <v>31630.145</v>
+      </c>
+      <c r="S9" s="25">
+        <f t="shared" si="4"/>
+        <v>291.85899999999998</v>
+      </c>
+      <c r="T9" s="27">
+        <f t="shared" si="5"/>
+        <v>134.85899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1908446137</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="29">
+        <v>9244</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20">
+        <f t="shared" si="0"/>
+        <v>9244</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="1"/>
+        <v>9626</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="2"/>
+        <v>254.21</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26">
+        <v>31</v>
+      </c>
+      <c r="R10" s="24">
+        <f t="shared" si="3"/>
+        <v>9340.7900000000009</v>
+      </c>
+      <c r="S10" s="25">
+        <f t="shared" si="4"/>
+        <v>87.817999999999998</v>
+      </c>
+      <c r="T10" s="27">
+        <f t="shared" si="5"/>
+        <v>56.817999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1908446138</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="29">
+        <v>13062</v>
+      </c>
+      <c r="E11" s="30">
+        <v>100</v>
+      </c>
+      <c r="F11" s="30">
+        <v>100</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30">
+        <v>600</v>
+      </c>
+      <c r="I11" s="20">
+        <v>21</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20">
+        <f t="shared" si="0"/>
+        <v>21462</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="1"/>
+        <v>25473</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" si="2"/>
+        <v>590.20500000000004</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26">
+        <v>62</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="3"/>
+        <v>24820.794999999998</v>
+      </c>
+      <c r="S11" s="25">
+        <f t="shared" si="4"/>
+        <v>203.88899999999998</v>
+      </c>
+      <c r="T11" s="27">
+        <f t="shared" si="5"/>
+        <v>141.88899999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1908446139</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7375</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>7375</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="1"/>
+        <v>7375</v>
+      </c>
+      <c r="O12" s="25">
+        <f t="shared" si="2"/>
+        <v>202.8125</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26">
+        <v>32</v>
+      </c>
+      <c r="R12" s="24">
+        <f t="shared" si="3"/>
+        <v>7140.1875</v>
+      </c>
+      <c r="S12" s="25">
+        <f t="shared" si="4"/>
+        <v>70.0625</v>
+      </c>
+      <c r="T12" s="27">
+        <f t="shared" si="5"/>
+        <v>38.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1908446140</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="29">
+        <v>12447</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
+        <f t="shared" si="0"/>
+        <v>12447</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="1"/>
+        <v>12447</v>
+      </c>
+      <c r="O13" s="25">
+        <f t="shared" si="2"/>
+        <v>342.29250000000002</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26">
+        <v>55</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="3"/>
+        <v>12049.7075</v>
+      </c>
+      <c r="S13" s="25">
+        <f t="shared" si="4"/>
+        <v>118.2465</v>
+      </c>
+      <c r="T13" s="27">
+        <f t="shared" si="5"/>
+        <v>63.246499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1908446141</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29">
+        <v>32911</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20">
+        <f t="shared" si="0"/>
+        <v>32911</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="1"/>
+        <v>32911</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="2"/>
+        <v>905.05250000000001</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26">
+        <v>176</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="3"/>
+        <v>31829.947499999998</v>
+      </c>
+      <c r="S14" s="25">
+        <f t="shared" si="4"/>
+        <v>312.65449999999998</v>
+      </c>
+      <c r="T14" s="27">
+        <f t="shared" si="5"/>
+        <v>136.65449999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1908446142</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29">
+        <v>17120</v>
+      </c>
+      <c r="E15" s="30">
+        <v>50</v>
+      </c>
+      <c r="F15" s="30">
+        <v>30</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30">
+        <v>180</v>
+      </c>
+      <c r="I15" s="20">
+        <v>7</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20">
+        <v>3</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20">
+        <f t="shared" si="0"/>
+        <v>20040</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="1"/>
+        <v>21923</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="2"/>
+        <v>551.1</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26">
+        <v>160</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="3"/>
+        <v>21211.9</v>
+      </c>
+      <c r="S15" s="25">
+        <f t="shared" si="4"/>
+        <v>190.38</v>
+      </c>
+      <c r="T15" s="27">
+        <f t="shared" si="5"/>
+        <v>30.379999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1908446143</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="29">
+        <v>20645</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30">
+        <v>10</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30">
+        <v>40</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20">
+        <f t="shared" si="0"/>
+        <v>21105</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="1"/>
+        <v>21105</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="2"/>
+        <v>580.38750000000005</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26">
+        <v>124</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="3"/>
+        <v>20400.612499999999</v>
+      </c>
+      <c r="S16" s="25">
+        <f t="shared" si="4"/>
+        <v>200.4975</v>
+      </c>
+      <c r="T16" s="27">
+        <f t="shared" si="5"/>
+        <v>76.497500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1908446144</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="29">
+        <v>28819</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20">
+        <f t="shared" si="0"/>
+        <v>28819</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="1"/>
+        <v>28819</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="2"/>
+        <v>792.52250000000004</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26">
+        <v>200</v>
+      </c>
+      <c r="R17" s="24">
+        <f t="shared" si="3"/>
+        <v>27826.477500000001</v>
+      </c>
+      <c r="S17" s="25">
+        <f t="shared" si="4"/>
+        <v>273.78050000000002</v>
+      </c>
+      <c r="T17" s="27">
+        <f t="shared" si="5"/>
+        <v>73.780500000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>12</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1908446145</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="29">
+        <v>12316</v>
+      </c>
+      <c r="E18" s="30">
+        <v>90</v>
+      </c>
+      <c r="F18" s="30">
+        <v>230</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30">
+        <v>200</v>
+      </c>
+      <c r="I18" s="20">
+        <v>20</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20">
+        <f t="shared" si="0"/>
+        <v>18216</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="1"/>
+        <v>22036</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="2"/>
+        <v>500.94</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26">
+        <v>180</v>
+      </c>
+      <c r="R18" s="24">
+        <f t="shared" si="3"/>
+        <v>21355.06</v>
+      </c>
+      <c r="S18" s="25">
+        <f t="shared" si="4"/>
+        <v>173.05199999999999</v>
+      </c>
+      <c r="T18" s="27">
+        <f t="shared" si="5"/>
+        <v>-6.9480000000000075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1908446146</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="29">
+        <v>28056</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20">
+        <f t="shared" si="0"/>
+        <v>28056</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="1"/>
+        <v>28966</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="2"/>
+        <v>771.54</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26">
+        <v>170</v>
+      </c>
+      <c r="R19" s="24">
+        <f t="shared" si="3"/>
+        <v>28024.46</v>
+      </c>
+      <c r="S19" s="25">
+        <f t="shared" si="4"/>
+        <v>266.53199999999998</v>
+      </c>
+      <c r="T19" s="27">
+        <f t="shared" si="5"/>
+        <v>96.531999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>14</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1908446147</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="29">
+        <v>9749</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20">
+        <f t="shared" si="0"/>
+        <v>9749</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="1"/>
+        <v>11659</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="2"/>
+        <v>268.09750000000003</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26">
+        <v>120</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="3"/>
+        <v>11270.9025</v>
+      </c>
+      <c r="S20" s="25">
+        <f t="shared" si="4"/>
+        <v>92.615499999999997</v>
+      </c>
+      <c r="T20" s="27">
+        <f t="shared" si="5"/>
+        <v>-27.384500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>15</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1908446148</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="29">
+        <v>8325</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
+        <f t="shared" si="0"/>
+        <v>8325</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="1"/>
+        <v>8325</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="2"/>
+        <v>228.9375</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26">
+        <v>30</v>
+      </c>
+      <c r="R21" s="24">
+        <f t="shared" si="3"/>
+        <v>8066.0625</v>
+      </c>
+      <c r="S21" s="25">
+        <f t="shared" si="4"/>
+        <v>79.087499999999991</v>
+      </c>
+      <c r="T21" s="27">
+        <f t="shared" si="5"/>
+        <v>49.087499999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>16</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1908446149</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="29">
+        <v>19626</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="20">
+        <v>5</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20">
+        <f t="shared" si="0"/>
+        <v>19626</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="1"/>
+        <v>20581</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="2"/>
+        <v>539.71500000000003</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26">
+        <v>100</v>
+      </c>
+      <c r="R22" s="24">
+        <f t="shared" si="3"/>
+        <v>19941.285</v>
+      </c>
+      <c r="S22" s="25">
+        <f t="shared" si="4"/>
+        <v>186.447</v>
+      </c>
+      <c r="T22" s="27">
+        <f t="shared" si="5"/>
+        <v>86.447000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>17</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1908446150</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="35">
+        <v>11678</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20">
+        <f t="shared" si="0"/>
+        <v>11678</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="1"/>
+        <v>11678</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="2"/>
+        <v>321.14499999999998</v>
+      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26">
+        <v>110</v>
+      </c>
+      <c r="R23" s="24">
+        <f t="shared" si="3"/>
+        <v>11246.855</v>
+      </c>
+      <c r="S23" s="25">
+        <f t="shared" si="4"/>
+        <v>110.941</v>
+      </c>
+      <c r="T23" s="27">
+        <f t="shared" si="5"/>
+        <v>0.9410000000000025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>18</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1908446151</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="29">
+        <v>14287</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20">
+        <f t="shared" si="0"/>
+        <v>14287</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="1"/>
+        <v>14287</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="2"/>
+        <v>392.89249999999998</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26">
+        <v>114</v>
+      </c>
+      <c r="R24" s="24">
+        <f t="shared" si="3"/>
+        <v>13780.1075</v>
+      </c>
+      <c r="S24" s="25">
+        <f t="shared" si="4"/>
+        <v>135.72649999999999</v>
+      </c>
+      <c r="T24" s="27">
+        <f t="shared" si="5"/>
+        <v>21.726499999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>19</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1908446152</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="29">
+        <v>16000</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="20">
+        <v>23</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="1"/>
+        <v>20393</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26">
+        <v>130</v>
+      </c>
+      <c r="R25" s="24">
+        <f t="shared" si="3"/>
+        <v>19823</v>
+      </c>
+      <c r="S25" s="25">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="T25" s="27">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>70</v>
+      </c>
+      <c r="B26" s="20">
+        <v>1908446153</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>21</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1908446154</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="37">
+        <v>9603</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31">
+        <f t="shared" si="0"/>
+        <v>9603</v>
+      </c>
+      <c r="N27" s="40">
+        <f t="shared" si="1"/>
+        <v>9603</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="2"/>
+        <v>264.08249999999998</v>
+      </c>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41">
+        <v>500</v>
+      </c>
+      <c r="R27" s="24">
+        <f t="shared" si="3"/>
+        <v>8838.9174999999996</v>
+      </c>
+      <c r="S27" s="42">
+        <f t="shared" si="4"/>
+        <v>91.228499999999997</v>
+      </c>
+      <c r="T27" s="43">
+        <f t="shared" si="5"/>
+        <v>-408.7715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="44">
+        <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
+        <v>328642</v>
+      </c>
+      <c r="E28" s="45">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="F28" s="45">
+        <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
+        <v>470</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="J28" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="45">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="45">
+        <f t="shared" si="7"/>
+        <v>354142</v>
+      </c>
+      <c r="N28" s="45">
+        <f t="shared" si="7"/>
+        <v>375080</v>
+      </c>
+      <c r="O28" s="46">
+        <f t="shared" si="7"/>
+        <v>9738.9050000000007</v>
+      </c>
+      <c r="P28" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="45">
+        <f t="shared" si="7"/>
+        <v>2663</v>
+      </c>
+      <c r="R28" s="45">
+        <f t="shared" si="7"/>
+        <v>362678.09499999997</v>
+      </c>
+      <c r="S28" s="45">
+        <f t="shared" si="7"/>
+        <v>3364.3490000000002</v>
+      </c>
+      <c r="T28" s="47">
+        <f t="shared" si="7"/>
+        <v>701.34899999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="48">
+        <f>D4+D5-D28</f>
+        <v>521729</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
+        <v>4240</v>
+      </c>
+      <c r="F29" s="48">
+        <f t="shared" si="8"/>
+        <v>8100</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="8"/>
+        <v>22020</v>
+      </c>
+      <c r="I29" s="48">
+        <f t="shared" si="8"/>
+        <v>899</v>
+      </c>
+      <c r="J29" s="48">
+        <f t="shared" si="8"/>
+        <v>624</v>
+      </c>
+      <c r="K29" s="48">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="L29" s="48">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="72"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="M29:T29"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:T5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D29 E4:H6 E28:K29">
+    <cfRule type="cellIs" dxfId="987" priority="43" operator="equal">
+      <formula>212030016606640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29 E4:E6 E28:K29">
+    <cfRule type="cellIs" dxfId="986" priority="41" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="985" priority="42" operator="equal">
+      <formula>2120</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
+    <cfRule type="cellIs" dxfId="984" priority="39" operator="equal">
+      <formula>$F$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="983" priority="40" operator="equal">
+      <formula>300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6 G28:G29">
+    <cfRule type="cellIs" dxfId="982" priority="37" operator="equal">
+      <formula>$G$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="981" priority="38" operator="equal">
+      <formula>1660</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H6 H28:H29">
+    <cfRule type="cellIs" dxfId="980" priority="35" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="979" priority="36" operator="equal">
+      <formula>6640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T28">
+    <cfRule type="cellIs" dxfId="978" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T27">
+    <cfRule type="cellIs" dxfId="977" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="976" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="975" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6 E28:K28">
+    <cfRule type="cellIs" dxfId="974" priority="30" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29 D6 D4:M4">
+    <cfRule type="cellIs" dxfId="973" priority="29" operator="equal">
+      <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I6 I28:I29">
+    <cfRule type="cellIs" dxfId="972" priority="28" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6 J28:J29">
+    <cfRule type="cellIs" dxfId="971" priority="27" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K6 K28:K29">
+    <cfRule type="cellIs" dxfId="970" priority="26" operator="equal">
+      <formula>$K$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M6">
+    <cfRule type="cellIs" dxfId="969" priority="25" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T28">
+    <cfRule type="cellIs" dxfId="968" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="967" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="966" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:K5">
+    <cfRule type="cellIs" dxfId="965" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T28">
+    <cfRule type="cellIs" dxfId="964" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T27">
+    <cfRule type="cellIs" dxfId="963" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="961" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T28">
+    <cfRule type="cellIs" dxfId="960" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="959" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="958" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:K5">
+    <cfRule type="cellIs" dxfId="957" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 L6 L28:L29">
+    <cfRule type="cellIs" dxfId="956" priority="12" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:S7">
+    <cfRule type="cellIs" dxfId="955" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:S9">
+    <cfRule type="cellIs" dxfId="954" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:S11">
+    <cfRule type="cellIs" dxfId="953" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:S13">
+    <cfRule type="cellIs" dxfId="952" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:S15">
+    <cfRule type="cellIs" dxfId="951" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:S17">
+    <cfRule type="cellIs" dxfId="950" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:S19">
+    <cfRule type="cellIs" dxfId="949" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:S21">
+    <cfRule type="cellIs" dxfId="948" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:S23">
+    <cfRule type="cellIs" dxfId="947" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:S25">
+    <cfRule type="cellIs" dxfId="946" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:S27">
+    <cfRule type="cellIs" dxfId="945" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14920,7 +16613,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="76"/>
@@ -14949,39 +16642,39 @@
       <c r="B4" s="78"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <f>'9'!D29</f>
-        <v>586795</v>
+        <f>'10'!D29</f>
+        <v>521729</v>
       </c>
       <c r="E4" s="2">
-        <f>'9'!E29</f>
-        <v>4560</v>
+        <f>'10'!E29</f>
+        <v>4240</v>
       </c>
       <c r="F4" s="2">
-        <f>'9'!F29</f>
-        <v>8570</v>
+        <f>'10'!F29</f>
+        <v>8100</v>
       </c>
       <c r="G4" s="2">
-        <f>'9'!G29</f>
+        <f>'10'!G29</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>'9'!H29</f>
-        <v>23620</v>
+        <f>'10'!H29</f>
+        <v>22020</v>
       </c>
       <c r="I4" s="2">
-        <f>'9'!I29</f>
-        <v>1011</v>
+        <f>'10'!I29</f>
+        <v>899</v>
       </c>
       <c r="J4" s="2">
-        <f>'9'!J29</f>
+        <f>'10'!J29</f>
         <v>624</v>
       </c>
       <c r="K4" s="2">
-        <f>'9'!K29</f>
-        <v>344</v>
+        <f>'10'!K29</f>
+        <v>336</v>
       </c>
       <c r="L4" s="2">
-        <f>'9'!L29</f>
+        <f>'10'!L29</f>
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
@@ -14999,11 +16692,17 @@
       </c>
       <c r="B5" s="78"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>311688</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>5000</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>15000</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15089,40 +16788,46 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21">
+        <v>10000</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22">
+        <v>100</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>0</v>
+        <v>299.75</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26">
+        <v>90</v>
+      </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
+        <v>10510.25</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>0</v>
+        <v>103.55</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>0</v>
+        <v>13.549999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15135,9 +16840,13 @@
       <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29">
+        <v>5840</v>
+      </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="30">
+        <v>100</v>
+      </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="20"/>
@@ -15146,29 +16855,31 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>0</v>
+        <v>6840</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>0</v>
+        <v>6840</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>0</v>
+        <v>188.1</v>
       </c>
       <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="26">
+        <v>80</v>
+      </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>0</v>
+        <v>6571.9</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>0</v>
+        <v>64.98</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>0</v>
+        <v>-15.019999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15181,40 +16892,46 @@
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>16651</v>
+      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>5</v>
+      </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16651</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17561</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>457.90249999999997</v>
       </c>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="26">
+        <v>153</v>
+      </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16950.0975</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>158.18449999999999</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.1844999999999857</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15227,40 +16944,50 @@
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29">
+        <v>3704</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="H10" s="30">
+        <v>100</v>
+      </c>
+      <c r="I10" s="20">
+        <v>3</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4604</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5368</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>126.61</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="26">
+        <v>31</v>
+      </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5210.3900000000003</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43.738</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.738</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15273,40 +17000,48 @@
       <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <v>3323</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20">
+        <v>7</v>
+      </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>3</v>
+      </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3323</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5206</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>91.382500000000007</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>29</v>
+      </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5085.6175000000003</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31.5685</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5685000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15319,7 +17054,9 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <v>5618</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -15330,29 +17067,31 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5618</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5618</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>154.495</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="26">
+        <v>33</v>
+      </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5430.5050000000001</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53.371000000000002</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.371000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15365,7 +17104,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>3504</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -15376,29 +17117,31 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3504</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3504</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.36</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>55</v>
+      </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3352.64</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.287999999999997</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-21.712000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15411,40 +17154,46 @@
       <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29">
+        <v>10796</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20">
+        <v>2</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10796</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11178</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>296.89</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="26">
+        <v>162</v>
+      </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10719.11</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>102.562</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-59.438000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15457,7 +17206,9 @@
       <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="29">
+        <v>10282</v>
+      </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -15468,29 +17219,31 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>282.755</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="26">
+        <v>150</v>
+      </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9849.2450000000008</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.679000000000002</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-52.320999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15503,40 +17256,46 @@
       <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29">
+        <v>12026</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12026</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12390</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>330.71499999999997</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="26">
+        <v>109</v>
+      </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11950.285</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>114.247</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.2469999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15550,43 +17309,51 @@
         <v>33</v>
       </c>
       <c r="D17" s="29">
-        <v>28819</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+        <v>9083</v>
+      </c>
+      <c r="E17" s="30">
+        <v>30</v>
+      </c>
+      <c r="F17" s="30">
+        <v>100</v>
+      </c>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="30">
+        <v>50</v>
+      </c>
+      <c r="I17" s="20">
+        <v>4</v>
+      </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>28819</v>
+        <v>11133</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>28819</v>
+        <v>11897</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>792.52250000000004</v>
+        <v>306.15750000000003</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>27826.477500000001</v>
+        <v>11499.842500000001</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>273.78050000000002</v>
+        <v>105.76349999999999</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>73.780500000000018</v>
+        <v>14.763499999999993</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15597,42 +17364,50 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="D18" s="29">
+        <v>7665</v>
+      </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="30">
+        <v>70</v>
+      </c>
       <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="30">
+        <v>160</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9805</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9805</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>269.63749999999999</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>100</v>
+      </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9435.3624999999993</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>93.147499999999994</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6.8525000000000063</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15645,40 +17420,46 @@
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29">
+        <v>9062</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="20">
+        <v>8</v>
+      </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9062</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10590</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>249.20500000000001</v>
       </c>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="26">
+        <v>340</v>
+      </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10000.795</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>86.088999999999999</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-253.911</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15689,42 +17470,48 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1338</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20">
+        <v>5</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36.795000000000002</v>
       </c>
       <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="26">
+        <v>120</v>
+      </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2136.2049999999999</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.711</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-107.289</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15735,42 +17522,50 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1283</v>
+      </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30">
+        <v>20</v>
+      </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="30">
+        <v>30</v>
+      </c>
+      <c r="I21" s="20">
+        <v>5</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2708</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48.207500000000003</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2659.7925</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.653500000000001</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16.653500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15783,7 +17578,9 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29">
+        <v>19649</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
@@ -15794,29 +17591,31 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19649</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19649</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540.34749999999997</v>
       </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="26">
+        <v>150</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18958.6525</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>186.66550000000001</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36.665500000000009</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15829,7 +17628,9 @@
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="35">
+        <v>4739</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -15840,29 +17641,31 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4739</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4739</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>130.32249999999999</v>
       </c>
       <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="Q23" s="26">
+        <v>40</v>
+      </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4568.6774999999998</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45.020499999999998</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0204999999999984</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15875,40 +17678,50 @@
       <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="29">
+        <v>19586</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="30">
+        <v>200</v>
+      </c>
+      <c r="I24" s="20">
+        <v>5</v>
+      </c>
       <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20">
+        <v>10</v>
+      </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21386</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24161</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>588.11500000000001</v>
       </c>
       <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="26">
+        <v>122</v>
+      </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23450.884999999998</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>203.167</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>81.167000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15921,40 +17734,46 @@
       <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29">
+        <v>5508</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="30">
+        <v>750</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12258</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12258</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>337.09500000000003</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="26">
+        <v>80</v>
+      </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11840.905000000001</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>116.45099999999999</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36.450999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -15967,7 +17786,9 @@
       <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="29">
+        <v>31980</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -15978,32 +17799,34 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31980</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31980</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>879.45</v>
       </c>
       <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="26">
+        <v>50</v>
+      </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31050.55</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>303.81</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>253.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -16013,7 +17836,9 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>7713</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -16024,29 +17849,31 @@
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7713</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7713</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>212.10749999999999</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="41">
+        <v>100</v>
+      </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7400.8924999999999</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>73.273499999999999</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-26.726500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16057,15 +17884,15 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>28819</v>
+        <v>199350</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -16073,19 +17900,19 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -16093,15 +17920,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>28819</v>
+        <v>215360</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>28819</v>
+        <v>226640</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>792.52250000000004</v>
+        <v>5922.4</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -16109,19 +17936,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>2085</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>27826.477500000001</v>
+        <v>218632.59999999998</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>273.78050000000002</v>
+        <v>2045.9199999999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>73.780500000000018</v>
+        <v>-39.079999999999885</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16132,15 +17959,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -16148,19 +17975,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -16210,1557 +18037,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="N5:T5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="987" priority="43" operator="equal">
-      <formula>212030016606640</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="986" priority="41" operator="equal">
-      <formula>$E$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="42" operator="equal">
-      <formula>2120</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="984" priority="39" operator="equal">
-      <formula>$F$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="40" operator="equal">
-      <formula>300</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="982" priority="37" operator="equal">
-      <formula>$G$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="38" operator="equal">
-      <formula>1660</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="980" priority="35" operator="equal">
-      <formula>$H$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="36" operator="equal">
-      <formula>6640</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="978" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="977" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="974" priority="30" operator="equal">
-      <formula>$E$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="973" priority="29" operator="equal">
-      <formula>$D$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="972" priority="28" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="971" priority="27" operator="equal">
-      <formula>$J$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="970" priority="26" operator="equal">
-      <formula>$K$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="969" priority="25" operator="equal">
-      <formula>$L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="968" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="965" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="964" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="963" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="960" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="957" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="956" priority="12" operator="equal">
-      <formula>$L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="955" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="954" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="953" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="952" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="951" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="950" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="949" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="948" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="947" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="946" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="945" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-    </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <f>'10'!D29</f>
-        <v>557976</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'10'!E29</f>
-        <v>4560</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'10'!F29</f>
-        <v>8570</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'10'!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'10'!H29</f>
-        <v>23620</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'10'!I29</f>
-        <v>1011</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'10'!J29</f>
-        <v>624</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'10'!K29</f>
-        <v>344</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'10'!L29</f>
-        <v>5</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-    </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1908446134</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="20">
-        <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="25">
-        <f>M7*2.75%</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="24">
-        <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="25">
-        <f>M7*0.95%</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="27">
-        <f>S7-Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1908446135</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20">
-        <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="25">
-        <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="24">
-        <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="25">
-        <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="27">
-        <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1908446136</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1908446137</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1908446138</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1908446139</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1908446140</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1908446141</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20">
-        <v>1908446142</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1908446143</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1908446144</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1908446145</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>13</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1908446146</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>14</v>
-      </c>
-      <c r="B20" s="20">
-        <v>1908446147</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>15</v>
-      </c>
-      <c r="B21" s="20">
-        <v>1908446148</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>16</v>
-      </c>
-      <c r="B22" s="20">
-        <v>1908446149</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20">
-        <v>1908446150</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1908446151</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1908446152</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>70</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1908446153</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
-        <v>21</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1908446154</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="44">
-        <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="45">
-        <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="48">
-        <f>D4+D5-D28</f>
-        <v>557976</v>
-      </c>
-      <c r="E29" s="48">
-        <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
-      </c>
-      <c r="F29" s="48">
-        <f t="shared" si="8"/>
-        <v>8570</v>
-      </c>
-      <c r="G29" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="48">
-        <f t="shared" si="8"/>
-        <v>23620</v>
-      </c>
-      <c r="I29" s="48">
-        <f t="shared" si="8"/>
-        <v>1011</v>
-      </c>
-      <c r="J29" s="48">
-        <f t="shared" si="8"/>
-        <v>624</v>
-      </c>
-      <c r="K29" s="48">
-        <f t="shared" si="8"/>
-        <v>344</v>
-      </c>
-      <c r="L29" s="48">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="72"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="M29:T29"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:T5"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D29 E4:H6 E28:K29">
+  <conditionalFormatting sqref="D29 E4:H4 E28:K29 E6:H6 E5:F5 H5">
     <cfRule type="cellIs" dxfId="944" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
@@ -17781,7 +18058,7 @@
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6 G28:G29">
+  <conditionalFormatting sqref="G4 G28:G29 G6">
     <cfRule type="cellIs" dxfId="939" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
@@ -17854,7 +18131,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5">
+  <conditionalFormatting sqref="D5:F5 H5:K5">
     <cfRule type="cellIs" dxfId="922" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17886,7 +18163,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5">
+  <conditionalFormatting sqref="D5:F5 H5:K5">
     <cfRule type="cellIs" dxfId="914" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18054,15 +18331,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -18070,19 +18347,19 @@
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19232,15 +19509,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -19248,19 +19525,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19604,15 +19881,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -19620,19 +19897,19 @@
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -20782,15 +21059,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -20798,19 +21075,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -21154,15 +21431,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -21170,19 +21447,19 @@
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22332,15 +22609,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22348,19 +22625,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22704,15 +22981,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -22720,19 +22997,19 @@
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -23882,15 +24159,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -23898,19 +24175,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24254,15 +24531,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -24270,19 +24547,19 @@
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25432,15 +25709,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25448,19 +25725,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25804,15 +26081,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -25820,19 +26097,19 @@
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -26982,15 +27259,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -26998,19 +27275,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27354,15 +27631,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -27370,19 +27647,19 @@
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28532,15 +28809,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28548,19 +28825,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -28904,15 +29181,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -28920,19 +29197,19 @@
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30082,15 +30359,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30098,19 +30375,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -32004,15 +32281,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -32020,19 +32297,19 @@
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33182,15 +33459,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -33198,19 +33475,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -33554,15 +33831,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -33570,19 +33847,19 @@
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -34732,15 +35009,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -34748,19 +35025,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35104,15 +35381,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -35120,19 +35397,19 @@
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36282,15 +36559,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36298,19 +36575,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -36654,15 +36931,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -36670,19 +36947,19 @@
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -37832,15 +38109,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -37848,19 +38125,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38204,15 +38481,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -38220,19 +38497,19 @@
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39382,15 +39659,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -39398,19 +39675,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39754,15 +40031,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -39770,19 +40047,19 @@
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -40932,15 +41209,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -40948,19 +41225,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41304,15 +41581,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -41320,19 +41597,19 @@
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42482,15 +42759,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42498,19 +42775,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -42854,15 +43131,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -42870,19 +43147,19 @@
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44032,15 +44309,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -44048,19 +44325,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44404,15 +44681,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -44420,19 +44697,19 @@
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -45582,15 +45859,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -45598,19 +45875,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -45954,15 +46231,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -45970,19 +46247,19 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47132,15 +47409,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47148,19 +47425,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -49220,15 +49497,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -49236,19 +49513,19 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50398,15 +50675,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -50414,19 +50691,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -50770,15 +51047,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -50786,19 +51063,19 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -51948,15 +52225,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -51964,19 +52241,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -52370,7 +52647,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
-        <v>1482014</v>
+        <v>2105390</v>
       </c>
       <c r="E5" s="1">
         <f>'1'!E5+'2'!E5+'3'!E5+'4'!E5+'5'!E5+'6'!E5+'7'!E5+'8'!E5+'9'!E5+'10'!E5+'11'!E5+'12'!E5+'13'!E5+'14'!E5+'15'!E5+'16'!E5+'17'!E5+'18'!E5+'19'!E5+'20'!E5+'21'!E5+'22'!E5+'23'!E5+'24'!E5+'25'!E5+'26'!E5+'27'!E5+'28'!E5+'29'!E5+'30'!E5+'31'!E5</f>
@@ -52378,7 +52655,7 @@
       </c>
       <c r="F5" s="1">
         <f>'1'!F5+'2'!F5+'3'!F5+'4'!F5+'5'!F5+'6'!F5+'7'!F5+'8'!F5+'9'!F5+'10'!F5+'11'!F5+'12'!F5+'13'!F5+'14'!F5+'15'!F5+'16'!F5+'17'!F5+'18'!F5+'19'!F5+'20'!F5+'21'!F5+'22'!F5+'23'!F5+'24'!F5+'25'!F5+'26'!F5+'27'!F5+'28'!F5+'29'!F5+'30'!F5+'31'!F5</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="1">
         <f>'1'!G5+'2'!G5+'3'!G5+'4'!G5+'5'!G5+'6'!G5+'7'!G5+'8'!G5+'9'!G5+'10'!G5+'11'!G5+'12'!G5+'13'!G5+'14'!G5+'15'!G5+'16'!G5+'17'!G5+'18'!G5+'19'!G5+'20'!G5+'21'!G5+'22'!G5+'23'!G5+'24'!G5+'25'!G5+'26'!G5+'27'!G5+'28'!G5+'29'!G5+'30'!G5+'31'!G5</f>
@@ -52386,7 +52663,7 @@
       </c>
       <c r="H5" s="1">
         <f>'1'!H5+'2'!H5+'3'!H5+'4'!H5+'5'!H5+'6'!H5+'7'!H5+'8'!H5+'9'!H5+'10'!H5+'11'!H5+'12'!H5+'13'!H5+'14'!H5+'15'!H5+'16'!H5+'17'!H5+'18'!H5+'19'!H5+'20'!H5+'21'!H5+'22'!H5+'23'!H5+'24'!H5+'25'!H5+'26'!H5+'27'!H5+'28'!H5+'29'!H5+'30'!H5+'31'!H5</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I5" s="1">
         <f>'1'!I5+'2'!I5+'3'!I5+'4'!I5+'5'!I5+'6'!I5+'7'!I5+'8'!I5+'9'!I5+'10'!I5+'11'!I5+'12'!I5+'13'!I5+'14'!I5+'15'!I5+'16'!I5+'17'!I5+'18'!I5+'19'!I5+'20'!I5+'21'!I5+'22'!I5+'23'!I5+'24'!I5+'25'!I5+'26'!I5+'27'!I5+'28'!I5+'29'!I5+'30'!I5+'31'!I5</f>
@@ -52487,15 +52764,15 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D7+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>87395</v>
+        <v>119395</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E7+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="F7" s="21">
         <f>'1'!F7+'2'!F7+'3'!F7+'4'!F7+'5'!F7+'6'!F7+'7'!F7+'8'!F7+'9'!F7+'10'!F7+'11'!F7+'12'!F7+'13'!F7+'14'!F7+'15'!F7+'16'!F7+'17'!F7+'18'!F7+'19'!F7+'20'!F7+'21'!F7+'22'!F7+'23'!F7+'24'!F7+'25'!F7+'26'!F7+'27'!F7+'28'!F7+'29'!F7+'30'!F7+'31'!F7</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G7" s="21">
         <f>'1'!G7+'2'!G7+'3'!G7+'4'!G7+'5'!G7+'6'!G7+'7'!G7+'8'!G7+'9'!G7+'10'!G7+'11'!G7+'12'!G7+'13'!G7+'14'!G7+'15'!G7+'16'!G7+'17'!G7+'18'!G7+'19'!G7+'20'!G7+'21'!G7+'22'!G7+'23'!G7+'24'!G7+'25'!G7+'26'!G7+'27'!G7+'28'!G7+'29'!G7+'30'!G7+'31'!G7</f>
@@ -52503,11 +52780,11 @@
       </c>
       <c r="H7" s="21">
         <f>'1'!H7+'2'!H7+'3'!H7+'4'!H7+'5'!H7+'6'!H7+'7'!H7+'8'!H7+'9'!H7+'10'!H7+'11'!H7+'12'!H7+'13'!H7+'14'!H7+'15'!H7+'16'!H7+'17'!H7+'18'!H7+'19'!H7+'20'!H7+'21'!H7+'22'!H7+'23'!H7+'24'!H7+'25'!H7+'26'!H7+'27'!H7+'28'!H7+'29'!H7+'30'!H7+'31'!H7</f>
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="I7" s="21">
         <f>'1'!I7+'2'!I7+'3'!I7+'4'!I7+'5'!I7+'6'!I7+'7'!I7+'8'!I7+'9'!I7+'10'!I7+'11'!I7+'12'!I7+'13'!I7+'14'!I7+'15'!I7+'16'!I7+'17'!I7+'18'!I7+'19'!I7+'20'!I7+'21'!I7+'22'!I7+'23'!I7+'24'!I7+'25'!I7+'26'!I7+'27'!I7+'28'!I7+'29'!I7+'30'!I7+'31'!I7</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J7" s="21">
         <f>'1'!J7+'2'!J7+'3'!J7+'4'!J7+'5'!J7+'6'!J7+'7'!J7+'8'!J7+'9'!J7+'10'!J7+'11'!J7+'12'!J7+'13'!J7+'14'!J7+'15'!J7+'16'!J7+'17'!J7+'18'!J7+'19'!J7+'20'!J7+'21'!J7+'22'!J7+'23'!J7+'24'!J7+'25'!J7+'26'!J7+'27'!J7+'28'!J7+'29'!J7+'30'!J7+'31'!J7</f>
@@ -52523,32 +52800,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>100795</v>
+        <v>136415</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>105543</v>
+        <v>141927</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>2771.8625000000002</v>
+        <v>3751.4124999999999</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q7+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!Q7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>713</v>
+        <v>927</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>102058.1375</v>
+        <v>137248.58749999999</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>957.55250000000001</v>
+        <v>1295.9424999999999</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>244.55250000000001</v>
+        <v>368.94249999999988</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52563,7 +52840,7 @@
       </c>
       <c r="D8" s="21">
         <f>'1'!D8+'2'!D8+'3'!D8+'4'!D8+'5'!D8+'6'!D8+'7'!D8+'8'!D8+'9'!D8+'10'!D8+'11'!D8+'12'!D8+'13'!D8+'14'!D8+'15'!D8+'16'!D8+'17'!D8+'18'!D8+'19'!D8+'20'!D8+'21'!D8+'22'!D8+'23'!D8+'24'!D8+'25'!D8+'26'!D8+'27'!D8+'28'!D8+'29'!D8+'30'!D8+'31'!D8</f>
-        <v>40339</v>
+        <v>55936</v>
       </c>
       <c r="E8" s="21">
         <f>'1'!E8+'2'!E8+'3'!E8+'4'!E8+'5'!E8+'6'!E8+'7'!E8+'8'!E8+'9'!E8+'10'!E8+'11'!E8+'12'!E8+'13'!E8+'14'!E8+'15'!E8+'16'!E8+'17'!E8+'18'!E8+'19'!E8+'20'!E8+'21'!E8+'22'!E8+'23'!E8+'24'!E8+'25'!E8+'26'!E8+'27'!E8+'28'!E8+'29'!E8+'30'!E8+'31'!E8</f>
@@ -52571,7 +52848,7 @@
       </c>
       <c r="F8" s="21">
         <f>'1'!F8+'2'!F8+'3'!F8+'4'!F8+'5'!F8+'6'!F8+'7'!F8+'8'!F8+'9'!F8+'10'!F8+'11'!F8+'12'!F8+'13'!F8+'14'!F8+'15'!F8+'16'!F8+'17'!F8+'18'!F8+'19'!F8+'20'!F8+'21'!F8+'22'!F8+'23'!F8+'24'!F8+'25'!F8+'26'!F8+'27'!F8+'28'!F8+'29'!F8+'30'!F8+'31'!F8</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="21">
         <f>'1'!G8+'2'!G8+'3'!G8+'4'!G8+'5'!G8+'6'!G8+'7'!G8+'8'!G8+'9'!G8+'10'!G8+'11'!G8+'12'!G8+'13'!G8+'14'!G8+'15'!G8+'16'!G8+'17'!G8+'18'!G8+'19'!G8+'20'!G8+'21'!G8+'22'!G8+'23'!G8+'24'!G8+'25'!G8+'26'!G8+'27'!G8+'28'!G8+'29'!G8+'30'!G8+'31'!G8</f>
@@ -52599,32 +52876,32 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>44679</v>
+        <v>61276</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>51510</v>
+        <v>68107</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>1228.6724999999999</v>
+        <v>1685.09</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26">
         <f>'1'!Q8+'2'!Q8+'3'!Q8+'4'!Q8+'5'!Q8+'6'!Q8+'7'!Q8+'8'!Q8+'9'!Q8+'10'!Q8+'11'!Q8+'12'!Q8+'13'!Q8+'14'!Q8+'15'!Q8+'16'!Q8+'17'!Q8+'18'!Q8+'19'!Q8+'20'!Q8+'21'!Q8+'22'!Q8+'23'!Q8+'24'!Q8+'25'!Q8+'26'!Q8+'27'!Q8+'28'!Q8+'29'!Q8+'30'!Q8+'31'!Q8</f>
-        <v>513</v>
+        <v>681</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>49768.327499999999</v>
+        <v>65740.91</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>424.45049999999998</v>
+        <v>582.12199999999996</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>-88.549500000000023</v>
+        <v>-98.878000000000043</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52639,11 +52916,11 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D9+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>105373</v>
+        <v>147646</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E9+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F9" s="21">
         <f>'1'!F9+'2'!F9+'3'!F9+'4'!F9+'5'!F9+'6'!F9+'7'!F9+'8'!F9+'9'!F9+'10'!F9+'11'!F9+'12'!F9+'13'!F9+'14'!F9+'15'!F9+'16'!F9+'17'!F9+'18'!F9+'19'!F9+'20'!F9+'21'!F9+'22'!F9+'23'!F9+'24'!F9+'25'!F9+'26'!F9+'27'!F9+'28'!F9+'29'!F9+'30'!F9+'31'!F9</f>
@@ -52655,11 +52932,11 @@
       </c>
       <c r="H9" s="21">
         <f>'1'!H9+'2'!H9+'3'!H9+'4'!H9+'5'!H9+'6'!H9+'7'!H9+'8'!H9+'9'!H9+'10'!H9+'11'!H9+'12'!H9+'13'!H9+'14'!H9+'15'!H9+'16'!H9+'17'!H9+'18'!H9+'19'!H9+'20'!H9+'21'!H9+'22'!H9+'23'!H9+'24'!H9+'25'!H9+'26'!H9+'27'!H9+'28'!H9+'29'!H9+'30'!H9+'31'!H9</f>
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="I9" s="21">
         <f>'1'!I9+'2'!I9+'3'!I9+'4'!I9+'5'!I9+'6'!I9+'7'!I9+'8'!I9+'9'!I9+'10'!I9+'11'!I9+'12'!I9+'13'!I9+'14'!I9+'15'!I9+'16'!I9+'17'!I9+'18'!I9+'19'!I9+'20'!I9+'21'!I9+'22'!I9+'23'!I9+'24'!I9+'25'!I9+'26'!I9+'27'!I9+'28'!I9+'29'!I9+'30'!I9+'31'!I9</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J9" s="21">
         <f>'1'!J9+'2'!J9+'3'!J9+'4'!J9+'5'!J9+'6'!J9+'7'!J9+'8'!J9+'9'!J9+'10'!J9+'11'!J9+'12'!J9+'13'!J9+'14'!J9+'15'!J9+'16'!J9+'17'!J9+'18'!J9+'19'!J9+'20'!J9+'21'!J9+'22'!J9+'23'!J9+'24'!J9+'25'!J9+'26'!J9+'27'!J9+'28'!J9+'29'!J9+'30'!J9+'31'!J9</f>
@@ -52667,7 +52944,7 @@
       </c>
       <c r="K9" s="21">
         <f>'1'!K9+'2'!K9+'3'!K9+'4'!K9+'5'!K9+'6'!K9+'7'!K9+'8'!K9+'9'!K9+'10'!K9+'11'!K9+'12'!K9+'13'!K9+'14'!K9+'15'!K9+'16'!K9+'17'!K9+'18'!K9+'19'!K9+'20'!K9+'21'!K9+'22'!K9+'23'!K9+'24'!K9+'25'!K9+'26'!K9+'27'!K9+'28'!K9+'29'!K9+'30'!K9+'31'!K9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="21">
         <f>'1'!L9+'2'!L9+'3'!L9+'4'!L9+'5'!L9+'6'!L9+'7'!L9+'8'!L9+'9'!L9+'10'!L9+'11'!L9+'12'!L9+'13'!L9+'14'!L9+'15'!L9+'16'!L9+'17'!L9+'18'!L9+'19'!L9+'20'!L9+'21'!L9+'22'!L9+'23'!L9+'24'!L9+'25'!L9+'26'!L9+'27'!L9+'28'!L9+'29'!L9+'30'!L9+'31'!L9</f>
@@ -52675,32 +52952,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>113723</v>
+        <v>161096</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>115442</v>
+        <v>165635</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>3127.3825000000002</v>
+        <v>4430.1400000000003</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q9+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!Q9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>1049</v>
+        <v>1359</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>111265.61749999999</v>
+        <v>159845.85999999999</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>1080.3685</v>
+        <v>1530.412</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>31.36850000000004</v>
+        <v>171.41200000000003</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52715,7 +52992,7 @@
       </c>
       <c r="D10" s="21">
         <f>'1'!D10+'2'!D10+'3'!D10+'4'!D10+'5'!D10+'6'!D10+'7'!D10+'8'!D10+'9'!D10+'10'!D10+'11'!D10+'12'!D10+'13'!D10+'14'!D10+'15'!D10+'16'!D10+'17'!D10+'18'!D10+'19'!D10+'20'!D10+'21'!D10+'22'!D10+'23'!D10+'24'!D10+'25'!D10+'26'!D10+'27'!D10+'28'!D10+'29'!D10+'30'!D10+'31'!D10</f>
-        <v>38871</v>
+        <v>51819</v>
       </c>
       <c r="E10" s="21">
         <f>'1'!E10+'2'!E10+'3'!E10+'4'!E10+'5'!E10+'6'!E10+'7'!E10+'8'!E10+'9'!E10+'10'!E10+'11'!E10+'12'!E10+'13'!E10+'14'!E10+'15'!E10+'16'!E10+'17'!E10+'18'!E10+'19'!E10+'20'!E10+'21'!E10+'22'!E10+'23'!E10+'24'!E10+'25'!E10+'26'!E10+'27'!E10+'28'!E10+'29'!E10+'30'!E10+'31'!E10</f>
@@ -52731,15 +53008,15 @@
       </c>
       <c r="H10" s="21">
         <f>'1'!H10+'2'!H10+'3'!H10+'4'!H10+'5'!H10+'6'!H10+'7'!H10+'8'!H10+'9'!H10+'10'!H10+'11'!H10+'12'!H10+'13'!H10+'14'!H10+'15'!H10+'16'!H10+'17'!H10+'18'!H10+'19'!H10+'20'!H10+'21'!H10+'22'!H10+'23'!H10+'24'!H10+'25'!H10+'26'!H10+'27'!H10+'28'!H10+'29'!H10+'30'!H10+'31'!H10</f>
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="I10" s="21">
         <f>'1'!I10+'2'!I10+'3'!I10+'4'!I10+'5'!I10+'6'!I10+'7'!I10+'8'!I10+'9'!I10+'10'!I10+'11'!I10+'12'!I10+'13'!I10+'14'!I10+'15'!I10+'16'!I10+'17'!I10+'18'!I10+'19'!I10+'20'!I10+'21'!I10+'22'!I10+'23'!I10+'24'!I10+'25'!I10+'26'!I10+'27'!I10+'28'!I10+'29'!I10+'30'!I10+'31'!I10</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="21">
         <f>'1'!J10+'2'!J10+'3'!J10+'4'!J10+'5'!J10+'6'!J10+'7'!J10+'8'!J10+'9'!J10+'10'!J10+'11'!J10+'12'!J10+'13'!J10+'14'!J10+'15'!J10+'16'!J10+'17'!J10+'18'!J10+'19'!J10+'20'!J10+'21'!J10+'22'!J10+'23'!J10+'24'!J10+'25'!J10+'26'!J10+'27'!J10+'28'!J10+'29'!J10+'30'!J10+'31'!J10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="21">
         <f>'1'!K10+'2'!K10+'3'!K10+'4'!K10+'5'!K10+'6'!K10+'7'!K10+'8'!K10+'9'!K10+'10'!K10+'11'!K10+'12'!K10+'13'!K10+'14'!K10+'15'!K10+'16'!K10+'17'!K10+'18'!K10+'19'!K10+'20'!K10+'21'!K10+'22'!K10+'23'!K10+'24'!K10+'25'!K10+'26'!K10+'27'!K10+'28'!K10+'29'!K10+'30'!K10+'31'!K10</f>
@@ -52751,32 +53028,32 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>40841</v>
+        <v>54689</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>45225</v>
+        <v>60219</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>1123.1275000000001</v>
+        <v>1503.9475</v>
       </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26">
         <f>'1'!Q10+'2'!Q10+'3'!Q10+'4'!Q10+'5'!Q10+'6'!Q10+'7'!Q10+'8'!Q10+'9'!Q10+'10'!Q10+'11'!Q10+'12'!Q10+'13'!Q10+'14'!Q10+'15'!Q10+'16'!Q10+'17'!Q10+'18'!Q10+'19'!Q10+'20'!Q10+'21'!Q10+'22'!Q10+'23'!Q10+'24'!Q10+'25'!Q10+'26'!Q10+'27'!Q10+'28'!Q10+'29'!Q10+'30'!Q10+'31'!Q10</f>
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>43898.872499999998</v>
+        <v>58450.052499999998</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>387.98949999999996</v>
+        <v>519.54549999999995</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>184.98949999999996</v>
+        <v>254.54549999999995</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52791,15 +53068,15 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D11+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>40749</v>
+        <v>57648</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E11+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="21">
         <f>'1'!F11+'2'!F11+'3'!F11+'4'!F11+'5'!F11+'6'!F11+'7'!F11+'8'!F11+'9'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G11" s="21">
         <f>'1'!G11+'2'!G11+'3'!G11+'4'!G11+'5'!G11+'6'!G11+'7'!G11+'8'!G11+'9'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -52807,11 +53084,11 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H11+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I11+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J11" s="21">
         <f>'1'!J11+'2'!J11+'3'!J11+'4'!J11+'5'!J11+'6'!J11+'7'!J11+'8'!J11+'9'!J11+'10'!J11+'11'!J11+'12'!J11+'13'!J11+'14'!J11+'15'!J11+'16'!J11+'17'!J11+'18'!J11+'19'!J11+'20'!J11+'21'!J11+'22'!J11+'23'!J11+'24'!J11+'25'!J11+'26'!J11+'27'!J11+'28'!J11+'29'!J11+'30'!J11+'31'!J11</f>
@@ -52819,7 +53096,7 @@
       </c>
       <c r="K11" s="21">
         <f>'1'!K11+'2'!K11+'3'!K11+'4'!K11+'5'!K11+'6'!K11+'7'!K11+'8'!K11+'9'!K11+'10'!K11+'11'!K11+'12'!K11+'13'!K11+'14'!K11+'15'!K11+'16'!K11+'17'!K11+'18'!K11+'19'!K11+'20'!K11+'21'!K11+'22'!K11+'23'!K11+'24'!K11+'25'!K11+'26'!K11+'27'!K11+'28'!K11+'29'!K11+'30'!K11+'31'!K11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="21">
         <f>'1'!L11+'2'!L11+'3'!L11+'4'!L11+'5'!L11+'6'!L11+'7'!L11+'8'!L11+'9'!L11+'10'!L11+'11'!L11+'12'!L11+'13'!L11+'14'!L11+'15'!L11+'16'!L11+'17'!L11+'18'!L11+'19'!L11+'20'!L11+'21'!L11+'22'!L11+'23'!L11+'24'!L11+'25'!L11+'26'!L11+'27'!L11+'28'!L11+'29'!L11+'30'!L11+'31'!L11</f>
@@ -52827,32 +53104,32 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>43099</v>
+        <v>68398</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>43099</v>
+        <v>74292</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>1185.2225000000001</v>
+        <v>1880.9449999999999</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
         <f>'1'!Q11+'2'!Q11+'3'!Q11+'4'!Q11+'5'!Q11+'6'!Q11+'7'!Q11+'8'!Q11+'9'!Q11+'10'!Q11+'11'!Q11+'12'!Q11+'13'!Q11+'14'!Q11+'15'!Q11+'16'!Q11+'17'!Q11+'18'!Q11+'19'!Q11+'20'!Q11+'21'!Q11+'22'!Q11+'23'!Q11+'24'!Q11+'25'!Q11+'26'!Q11+'27'!Q11+'28'!Q11+'29'!Q11+'30'!Q11+'31'!Q11</f>
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>41636.777499999997</v>
+        <v>72043.054999999993</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>409.44049999999999</v>
+        <v>649.78099999999995</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>132.44049999999999</v>
+        <v>281.78099999999995</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52867,7 +53144,7 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D12+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>32793</v>
+        <v>45786</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E12+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
@@ -52903,32 +53180,32 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>32793</v>
+        <v>45786</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>34613</v>
+        <v>47606</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>901.8075</v>
+        <v>1259.115</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
         <f>'1'!Q12+'2'!Q12+'3'!Q12+'4'!Q12+'5'!Q12+'6'!Q12+'7'!Q12+'8'!Q12+'9'!Q12+'10'!Q12+'11'!Q12+'12'!Q12+'13'!Q12+'14'!Q12+'15'!Q12+'16'!Q12+'17'!Q12+'18'!Q12+'19'!Q12+'20'!Q12+'21'!Q12+'22'!Q12+'23'!Q12+'24'!Q12+'25'!Q12+'26'!Q12+'27'!Q12+'28'!Q12+'29'!Q12+'30'!Q12+'31'!Q12</f>
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>33513.192500000005</v>
+        <v>46083.885000000002</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>311.5335</v>
+        <v>434.96699999999998</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>113.5335</v>
+        <v>171.96699999999998</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52943,7 +53220,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>34941</v>
+        <v>50892</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E13+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -52979,32 +53256,32 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>37531</v>
+        <v>53482</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>37531</v>
+        <v>53482</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>1032.1025</v>
+        <v>1470.7550000000001</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q13+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!Q13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>36128.897499999999</v>
+        <v>51531.245000000003</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>356.54449999999997</v>
+        <v>508.07900000000001</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>-13.455500000000029</v>
+        <v>28.079000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53019,7 +53296,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>109653</v>
+        <v>153360</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -53039,7 +53316,7 @@
       </c>
       <c r="I14" s="21">
         <f>'1'!I14+'2'!I14+'3'!I14+'4'!I14+'5'!I14+'6'!I14+'7'!I14+'8'!I14+'9'!I14+'10'!I14+'11'!I14+'12'!I14+'13'!I14+'14'!I14+'15'!I14+'16'!I14+'17'!I14+'18'!I14+'19'!I14+'20'!I14+'21'!I14+'22'!I14+'23'!I14+'24'!I14+'25'!I14+'26'!I14+'27'!I14+'28'!I14+'29'!I14+'30'!I14+'31'!I14</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="21">
         <f>'1'!J14+'2'!J14+'3'!J14+'4'!J14+'5'!J14+'6'!J14+'7'!J14+'8'!J14+'9'!J14+'10'!J14+'11'!J14+'12'!J14+'13'!J14+'14'!J14+'15'!J14+'16'!J14+'17'!J14+'18'!J14+'19'!J14+'20'!J14+'21'!J14+'22'!J14+'23'!J14+'24'!J14+'25'!J14+'26'!J14+'27'!J14+'28'!J14+'29'!J14+'30'!J14+'31'!J14</f>
@@ -53055,32 +53332,32 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>113273</v>
+        <v>156980</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>115183</v>
+        <v>159272</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>3115.0075000000002</v>
+        <v>4316.95</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
         <f>'1'!Q14+'2'!Q14+'3'!Q14+'4'!Q14+'5'!Q14+'6'!Q14+'7'!Q14+'8'!Q14+'9'!Q14+'10'!Q14+'11'!Q14+'12'!Q14+'13'!Q14+'14'!Q14+'15'!Q14+'16'!Q14+'17'!Q14+'18'!Q14+'19'!Q14+'20'!Q14+'21'!Q14+'22'!Q14+'23'!Q14+'24'!Q14+'25'!Q14+'26'!Q14+'27'!Q14+'28'!Q14+'29'!Q14+'30'!Q14+'31'!Q14</f>
-        <v>1016</v>
+        <v>1354</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>111051.99249999999</v>
+        <v>153601.04999999999</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>1076.0934999999999</v>
+        <v>1491.31</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>60.093499999999949</v>
+        <v>137.30999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53095,15 +53372,15 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>149290</v>
+        <v>176692</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F15" s="21">
         <f>'1'!F15+'2'!F15+'3'!F15+'4'!F15+'5'!F15+'6'!F15+'7'!F15+'8'!F15+'9'!F15+'10'!F15+'11'!F15+'12'!F15+'13'!F15+'14'!F15+'15'!F15+'16'!F15+'17'!F15+'18'!F15+'19'!F15+'20'!F15+'21'!F15+'22'!F15+'23'!F15+'24'!F15+'25'!F15+'26'!F15+'27'!F15+'28'!F15+'29'!F15+'30'!F15+'31'!F15</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G15" s="21">
         <f>'1'!G15+'2'!G15+'3'!G15+'4'!G15+'5'!G15+'6'!G15+'7'!G15+'8'!G15+'9'!G15+'10'!G15+'11'!G15+'12'!G15+'13'!G15+'14'!G15+'15'!G15+'16'!G15+'17'!G15+'18'!G15+'19'!G15+'20'!G15+'21'!G15+'22'!G15+'23'!G15+'24'!G15+'25'!G15+'26'!G15+'27'!G15+'28'!G15+'29'!G15+'30'!G15+'31'!G15</f>
@@ -53111,11 +53388,11 @@
       </c>
       <c r="H15" s="21">
         <f>'1'!H15+'2'!H15+'3'!H15+'4'!H15+'5'!H15+'6'!H15+'7'!H15+'8'!H15+'9'!H15+'10'!H15+'11'!H15+'12'!H15+'13'!H15+'14'!H15+'15'!H15+'16'!H15+'17'!H15+'18'!H15+'19'!H15+'20'!H15+'21'!H15+'22'!H15+'23'!H15+'24'!H15+'25'!H15+'26'!H15+'27'!H15+'28'!H15+'29'!H15+'30'!H15+'31'!H15</f>
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="I15" s="21">
         <f>'1'!I15+'2'!I15+'3'!I15+'4'!I15+'5'!I15+'6'!I15+'7'!I15+'8'!I15+'9'!I15+'10'!I15+'11'!I15+'12'!I15+'13'!I15+'14'!I15+'15'!I15+'16'!I15+'17'!I15+'18'!I15+'19'!I15+'20'!I15+'21'!I15+'22'!I15+'23'!I15+'24'!I15+'25'!I15+'26'!I15+'27'!I15+'28'!I15+'29'!I15+'30'!I15+'31'!I15</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J15" s="21">
         <f>'1'!J15+'2'!J15+'3'!J15+'4'!J15+'5'!J15+'6'!J15+'7'!J15+'8'!J15+'9'!J15+'10'!J15+'11'!J15+'12'!J15+'13'!J15+'14'!J15+'15'!J15+'16'!J15+'17'!J15+'18'!J15+'19'!J15+'20'!J15+'21'!J15+'22'!J15+'23'!J15+'24'!J15+'25'!J15+'26'!J15+'27'!J15+'28'!J15+'29'!J15+'30'!J15+'31'!J15</f>
@@ -53123,7 +53400,7 @@
       </c>
       <c r="K15" s="21">
         <f>'1'!K15+'2'!K15+'3'!K15+'4'!K15+'5'!K15+'6'!K15+'7'!K15+'8'!K15+'9'!K15+'10'!K15+'11'!K15+'12'!K15+'13'!K15+'14'!K15+'15'!K15+'16'!K15+'17'!K15+'18'!K15+'19'!K15+'20'!K15+'21'!K15+'22'!K15+'23'!K15+'24'!K15+'25'!K15+'26'!K15+'27'!K15+'28'!K15+'29'!K15+'30'!K15+'31'!K15</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L15" s="21">
         <f>'1'!L15+'2'!L15+'3'!L15+'4'!L15+'5'!L15+'6'!L15+'7'!L15+'8'!L15+'9'!L15+'10'!L15+'11'!L15+'12'!L15+'13'!L15+'14'!L15+'15'!L15+'16'!L15+'17'!L15+'18'!L15+'19'!L15+'20'!L15+'21'!L15+'22'!L15+'23'!L15+'24'!L15+'25'!L15+'26'!L15+'27'!L15+'28'!L15+'29'!L15+'30'!L15+'31'!L15</f>
@@ -53131,32 +53408,32 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>155670</v>
+        <v>185992</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>158490</v>
+        <v>190695</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>4280.9250000000002</v>
+        <v>5114.78</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
         <f>'1'!Q15+'2'!Q15+'3'!Q15+'4'!Q15+'5'!Q15+'6'!Q15+'7'!Q15+'8'!Q15+'9'!Q15+'10'!Q15+'11'!Q15+'12'!Q15+'13'!Q15+'14'!Q15+'15'!Q15+'16'!Q15+'17'!Q15+'18'!Q15+'19'!Q15+'20'!Q15+'21'!Q15+'22'!Q15+'23'!Q15+'24'!Q15+'25'!Q15+'26'!Q15+'27'!Q15+'28'!Q15+'29'!Q15+'30'!Q15+'31'!Q15</f>
-        <v>1150</v>
+        <v>1460</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>153059.07500000001</v>
+        <v>184120.22</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>1478.865</v>
+        <v>1766.924</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>328.86500000000001</v>
+        <v>306.92399999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53171,7 +53448,7 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>109101</v>
+        <v>141772</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
@@ -53179,7 +53456,7 @@
       </c>
       <c r="F16" s="21">
         <f>'1'!F16+'2'!F16+'3'!F16+'4'!F16+'5'!F16+'6'!F16+'7'!F16+'8'!F16+'9'!F16+'10'!F16+'11'!F16+'12'!F16+'13'!F16+'14'!F16+'15'!F16+'16'!F16+'17'!F16+'18'!F16+'19'!F16+'20'!F16+'21'!F16+'22'!F16+'23'!F16+'24'!F16+'25'!F16+'26'!F16+'27'!F16+'28'!F16+'29'!F16+'30'!F16+'31'!F16</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G16" s="21">
         <f>'1'!G16+'2'!G16+'3'!G16+'4'!G16+'5'!G16+'6'!G16+'7'!G16+'8'!G16+'9'!G16+'10'!G16+'11'!G16+'12'!G16+'13'!G16+'14'!G16+'15'!G16+'16'!G16+'17'!G16+'18'!G16+'19'!G16+'20'!G16+'21'!G16+'22'!G16+'23'!G16+'24'!G16+'25'!G16+'26'!G16+'27'!G16+'28'!G16+'29'!G16+'30'!G16+'31'!G16</f>
@@ -53187,7 +53464,7 @@
       </c>
       <c r="H16" s="21">
         <f>'1'!H16+'2'!H16+'3'!H16+'4'!H16+'5'!H16+'6'!H16+'7'!H16+'8'!H16+'9'!H16+'10'!H16+'11'!H16+'12'!H16+'13'!H16+'14'!H16+'15'!H16+'16'!H16+'17'!H16+'18'!H16+'19'!H16+'20'!H16+'21'!H16+'22'!H16+'23'!H16+'24'!H16+'25'!H16+'26'!H16+'27'!H16+'28'!H16+'29'!H16+'30'!H16+'31'!H16</f>
-        <v>1240</v>
+        <v>1280</v>
       </c>
       <c r="I16" s="21">
         <f>'1'!I16+'2'!I16+'3'!I16+'4'!I16+'5'!I16+'6'!I16+'7'!I16+'8'!I16+'9'!I16+'10'!I16+'11'!I16+'12'!I16+'13'!I16+'14'!I16+'15'!I16+'16'!I16+'17'!I16+'18'!I16+'19'!I16+'20'!I16+'21'!I16+'22'!I16+'23'!I16+'24'!I16+'25'!I16+'26'!I16+'27'!I16+'28'!I16+'29'!I16+'30'!I16+'31'!I16</f>
@@ -53199,7 +53476,7 @@
       </c>
       <c r="K16" s="21">
         <f>'1'!K16+'2'!K16+'3'!K16+'4'!K16+'5'!K16+'6'!K16+'7'!K16+'8'!K16+'9'!K16+'10'!K16+'11'!K16+'12'!K16+'13'!K16+'14'!K16+'15'!K16+'16'!K16+'17'!K16+'18'!K16+'19'!K16+'20'!K16+'21'!K16+'22'!K16+'23'!K16+'24'!K16+'25'!K16+'26'!K16+'27'!K16+'28'!K16+'29'!K16+'30'!K16+'31'!K16</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L16" s="21">
         <f>'1'!L16+'2'!L16+'3'!L16+'4'!L16+'5'!L16+'6'!L16+'7'!L16+'8'!L16+'9'!L16+'10'!L16+'11'!L16+'12'!L16+'13'!L16+'14'!L16+'15'!L16+'16'!L16+'17'!L16+'18'!L16+'19'!L16+'20'!L16+'21'!L16+'22'!L16+'23'!L16+'24'!L16+'25'!L16+'26'!L16+'27'!L16+'28'!L16+'29'!L16+'30'!L16+'31'!L16</f>
@@ -53207,32 +53484,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>122661</v>
+        <v>155792</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>131402</v>
+        <v>164897</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>3373.1775000000002</v>
+        <v>4284.28</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q16+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!Q16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>1229</v>
+        <v>1462</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>126799.82249999999</v>
+        <v>159150.72</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>1165.2794999999999</v>
+        <v>1480.0239999999999</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>-63.720500000000129</v>
+        <v>18.023999999999887</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53247,15 +53524,15 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>85991</v>
+        <v>95074</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F17" s="21">
         <f>'1'!F17+'2'!F17+'3'!F17+'4'!F17+'5'!F17+'6'!F17+'7'!F17+'8'!F17+'9'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="21">
         <f>'1'!G17+'2'!G17+'3'!G17+'4'!G17+'5'!G17+'6'!G17+'7'!G17+'8'!G17+'9'!G17+'10'!G17+'11'!G17+'12'!G17+'13'!G17+'14'!G17+'15'!G17+'16'!G17+'17'!G17+'18'!G17+'19'!G17+'20'!G17+'21'!G17+'22'!G17+'23'!G17+'24'!G17+'25'!G17+'26'!G17+'27'!G17+'28'!G17+'29'!G17+'30'!G17+'31'!G17</f>
@@ -53263,11 +53540,11 @@
       </c>
       <c r="H17" s="21">
         <f>'1'!H17+'2'!H17+'3'!H17+'4'!H17+'5'!H17+'6'!H17+'7'!H17+'8'!H17+'9'!H17+'10'!H17+'11'!H17+'12'!H17+'13'!H17+'14'!H17+'15'!H17+'16'!H17+'17'!H17+'18'!H17+'19'!H17+'20'!H17+'21'!H17+'22'!H17+'23'!H17+'24'!H17+'25'!H17+'26'!H17+'27'!H17+'28'!H17+'29'!H17+'30'!H17+'31'!H17</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I17" s="21">
         <f>'1'!I17+'2'!I17+'3'!I17+'4'!I17+'5'!I17+'6'!I17+'7'!I17+'8'!I17+'9'!I17+'10'!I17+'11'!I17+'12'!I17+'13'!I17+'14'!I17+'15'!I17+'16'!I17+'17'!I17+'18'!I17+'19'!I17+'20'!I17+'21'!I17+'22'!I17+'23'!I17+'24'!I17+'25'!I17+'26'!I17+'27'!I17+'28'!I17+'29'!I17+'30'!I17+'31'!I17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J17" s="21">
         <f>'1'!J17+'2'!J17+'3'!J17+'4'!J17+'5'!J17+'6'!J17+'7'!J17+'8'!J17+'9'!J17+'10'!J17+'11'!J17+'12'!J17+'13'!J17+'14'!J17+'15'!J17+'16'!J17+'17'!J17+'18'!J17+'19'!J17+'20'!J17+'21'!J17+'22'!J17+'23'!J17+'24'!J17+'25'!J17+'26'!J17+'27'!J17+'28'!J17+'29'!J17+'30'!J17+'31'!J17</f>
@@ -53283,32 +53560,32 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>90291</v>
+        <v>101424</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>97432</v>
+        <v>109329</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>2483.0025000000001</v>
+        <v>2789.16</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
         <f>'1'!Q17+'2'!Q17+'3'!Q17+'4'!Q17+'5'!Q17+'6'!Q17+'7'!Q17+'8'!Q17+'9'!Q17+'10'!Q17+'11'!Q17+'12'!Q17+'13'!Q17+'14'!Q17+'15'!Q17+'16'!Q17+'17'!Q17+'18'!Q17+'19'!Q17+'20'!Q17+'21'!Q17+'22'!Q17+'23'!Q17+'24'!Q17+'25'!Q17+'26'!Q17+'27'!Q17+'28'!Q17+'29'!Q17+'30'!Q17+'31'!Q17</f>
-        <v>843</v>
+        <v>934</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>94105.997499999998</v>
+        <v>105605.84</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>857.7645</v>
+        <v>963.52800000000002</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>14.764499999999998</v>
+        <v>29.52800000000002</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53323,15 +53600,15 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>75888</v>
+        <v>108728</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F18" s="21">
         <f>'1'!F18+'2'!F18+'3'!F18+'4'!F18+'5'!F18+'6'!F18+'7'!F18+'8'!F18+'9'!F18+'10'!F18+'11'!F18+'12'!F18+'13'!F18+'14'!F18+'15'!F18+'16'!F18+'17'!F18+'18'!F18+'19'!F18+'20'!F18+'21'!F18+'22'!F18+'23'!F18+'24'!F18+'25'!F18+'26'!F18+'27'!F18+'28'!F18+'29'!F18+'30'!F18+'31'!F18</f>
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G18" s="21">
         <f>'1'!G18+'2'!G18+'3'!G18+'4'!G18+'5'!G18+'6'!G18+'7'!G18+'8'!G18+'9'!G18+'10'!G18+'11'!G18+'12'!G18+'13'!G18+'14'!G18+'15'!G18+'16'!G18+'17'!G18+'18'!G18+'19'!G18+'20'!G18+'21'!G18+'22'!G18+'23'!G18+'24'!G18+'25'!G18+'26'!G18+'27'!G18+'28'!G18+'29'!G18+'30'!G18+'31'!G18</f>
@@ -53339,11 +53616,11 @@
       </c>
       <c r="H18" s="21">
         <f>'1'!H18+'2'!H18+'3'!H18+'4'!H18+'5'!H18+'6'!H18+'7'!H18+'8'!H18+'9'!H18+'10'!H18+'11'!H18+'12'!H18+'13'!H18+'14'!H18+'15'!H18+'16'!H18+'17'!H18+'18'!H18+'19'!H18+'20'!H18+'21'!H18+'22'!H18+'23'!H18+'24'!H18+'25'!H18+'26'!H18+'27'!H18+'28'!H18+'29'!H18+'30'!H18+'31'!H18</f>
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="I18" s="21">
         <f>'1'!I18+'2'!I18+'3'!I18+'4'!I18+'5'!I18+'6'!I18+'7'!I18+'8'!I18+'9'!I18+'10'!I18+'11'!I18+'12'!I18+'13'!I18+'14'!I18+'15'!I18+'16'!I18+'17'!I18+'18'!I18+'19'!I18+'20'!I18+'21'!I18+'22'!I18+'23'!I18+'24'!I18+'25'!I18+'26'!I18+'27'!I18+'28'!I18+'29'!I18+'30'!I18+'31'!I18</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J18" s="21">
         <f>'1'!J18+'2'!J18+'3'!J18+'4'!J18+'5'!J18+'6'!J18+'7'!J18+'8'!J18+'9'!J18+'10'!J18+'11'!J18+'12'!J18+'13'!J18+'14'!J18+'15'!J18+'16'!J18+'17'!J18+'18'!J18+'19'!J18+'20'!J18+'21'!J18+'22'!J18+'23'!J18+'24'!J18+'25'!J18+'26'!J18+'27'!J18+'28'!J18+'29'!J18+'30'!J18+'31'!J18</f>
@@ -53359,32 +53636,32 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>118368</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>83892</v>
+        <v>128592</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>2130.92</v>
+        <v>3255.12</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
         <f>'1'!Q18+'2'!Q18+'3'!Q18+'4'!Q18+'5'!Q18+'6'!Q18+'7'!Q18+'8'!Q18+'9'!Q18+'10'!Q18+'11'!Q18+'12'!Q18+'13'!Q18+'14'!Q18+'15'!Q18+'16'!Q18+'17'!Q18+'18'!Q18+'19'!Q18+'20'!Q18+'21'!Q18+'22'!Q18+'23'!Q18+'24'!Q18+'25'!Q18+'26'!Q18+'27'!Q18+'28'!Q18+'29'!Q18+'30'!Q18+'31'!Q18</f>
-        <v>1080</v>
+        <v>1460</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>80681.08</v>
+        <v>123876.88</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>736.13599999999997</v>
+        <v>1124.4959999999999</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-343.86400000000003</v>
+        <v>-335.50400000000013</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53399,7 +53676,7 @@
       </c>
       <c r="D19" s="21">
         <f>'1'!D19+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>81430</v>
+        <v>118548</v>
       </c>
       <c r="E19" s="21">
         <f>'1'!E19+'2'!E19+'3'!E19+'4'!E19+'5'!E19+'6'!E19+'7'!E19+'8'!E19+'9'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
@@ -53419,7 +53696,7 @@
       </c>
       <c r="I19" s="21">
         <f>'1'!I19+'2'!I19+'3'!I19+'4'!I19+'5'!I19+'6'!I19+'7'!I19+'8'!I19+'9'!I19+'10'!I19+'11'!I19+'12'!I19+'13'!I19+'14'!I19+'15'!I19+'16'!I19+'17'!I19+'18'!I19+'19'!I19+'20'!I19+'21'!I19+'22'!I19+'23'!I19+'24'!I19+'25'!I19+'26'!I19+'27'!I19+'28'!I19+'29'!I19+'30'!I19+'31'!I19</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J19" s="21">
         <f>'1'!J19+'2'!J19+'3'!J19+'4'!J19+'5'!J19+'6'!J19+'7'!J19+'8'!J19+'9'!J19+'10'!J19+'11'!J19+'12'!J19+'13'!J19+'14'!J19+'15'!J19+'16'!J19+'17'!J19+'18'!J19+'19'!J19+'20'!J19+'21'!J19+'22'!J19+'23'!J19+'24'!J19+'25'!J19+'26'!J19+'27'!J19+'28'!J19+'29'!J19+'30'!J19+'31'!J19</f>
@@ -53427,7 +53704,7 @@
       </c>
       <c r="K19" s="21">
         <f>'1'!K19+'2'!K19+'3'!K19+'4'!K19+'5'!K19+'6'!K19+'7'!K19+'8'!K19+'9'!K19+'10'!K19+'11'!K19+'12'!K19+'13'!K19+'14'!K19+'15'!K19+'16'!K19+'17'!K19+'18'!K19+'19'!K19+'20'!K19+'21'!K19+'22'!K19+'23'!K19+'24'!K19+'25'!K19+'26'!K19+'27'!K19+'28'!K19+'29'!K19+'30'!K19+'31'!K19</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L19" s="21">
         <f>'1'!L19+'2'!L19+'3'!L19+'4'!L19+'5'!L19+'6'!L19+'7'!L19+'8'!L19+'9'!L19+'10'!L19+'11'!L19+'12'!L19+'13'!L19+'14'!L19+'15'!L19+'16'!L19+'17'!L19+'18'!L19+'19'!L19+'20'!L19+'21'!L19+'22'!L19+'23'!L19+'24'!L19+'25'!L19+'26'!L19+'27'!L19+'28'!L19+'29'!L19+'30'!L19+'31'!L19</f>
@@ -53435,32 +53712,32 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>90800</v>
+        <v>127918</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>102961</v>
+        <v>142517</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>2497</v>
+        <v>3517.7449999999999</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26">
         <f>'1'!Q19+'2'!Q19+'3'!Q19+'4'!Q19+'5'!Q19+'6'!Q19+'7'!Q19+'8'!Q19+'9'!Q19+'10'!Q19+'11'!Q19+'12'!Q19+'13'!Q19+'14'!Q19+'15'!Q19+'16'!Q19+'17'!Q19+'18'!Q19+'19'!Q19+'20'!Q19+'21'!Q19+'22'!Q19+'23'!Q19+'24'!Q19+'25'!Q19+'26'!Q19+'27'!Q19+'28'!Q19+'29'!Q19+'30'!Q19+'31'!Q19</f>
-        <v>1190</v>
+        <v>1700</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>99274</v>
+        <v>137299.255</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>862.6</v>
+        <v>1215.221</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>-327.39999999999998</v>
+        <v>-484.779</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53475,7 +53752,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>32206</v>
+        <v>43293</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E20+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -53495,7 +53772,7 @@
       </c>
       <c r="I20" s="21">
         <f>'1'!I20+'2'!I20+'3'!I20+'4'!I20+'5'!I20+'6'!I20+'7'!I20+'8'!I20+'9'!I20+'10'!I20+'11'!I20+'12'!I20+'13'!I20+'14'!I20+'15'!I20+'16'!I20+'17'!I20+'18'!I20+'19'!I20+'20'!I20+'21'!I20+'22'!I20+'23'!I20+'24'!I20+'25'!I20+'26'!I20+'27'!I20+'28'!I20+'29'!I20+'30'!I20+'31'!I20</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J20" s="21">
         <f>'1'!J20+'2'!J20+'3'!J20+'4'!J20+'5'!J20+'6'!J20+'7'!J20+'8'!J20+'9'!J20+'10'!J20+'11'!J20+'12'!J20+'13'!J20+'14'!J20+'15'!J20+'16'!J20+'17'!J20+'18'!J20+'19'!J20+'20'!J20+'21'!J20+'22'!J20+'23'!J20+'24'!J20+'25'!J20+'26'!J20+'27'!J20+'28'!J20+'29'!J20+'30'!J20+'31'!J20</f>
@@ -53511,32 +53788,32 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>35386</v>
+        <v>46473</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>37296</v>
+        <v>51248</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>973.11500000000001</v>
+        <v>1278.0074999999999</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
         <f>'1'!Q20+'2'!Q20+'3'!Q20+'4'!Q20+'5'!Q20+'6'!Q20+'7'!Q20+'8'!Q20+'9'!Q20+'10'!Q20+'11'!Q20+'12'!Q20+'13'!Q20+'14'!Q20+'15'!Q20+'16'!Q20+'17'!Q20+'18'!Q20+'19'!Q20+'20'!Q20+'21'!Q20+'22'!Q20+'23'!Q20+'24'!Q20+'25'!Q20+'26'!Q20+'27'!Q20+'28'!Q20+'29'!Q20+'30'!Q20+'31'!Q20</f>
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>35602.885000000002</v>
+        <v>49009.9925</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>336.16699999999997</v>
+        <v>441.49349999999998</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>-383.83300000000003</v>
+        <v>-518.50649999999996</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53551,7 +53828,7 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>37729</v>
+        <v>47337</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E21+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
@@ -53559,7 +53836,7 @@
       </c>
       <c r="F21" s="21">
         <f>'1'!F21+'2'!F21+'3'!F21+'4'!F21+'5'!F21+'6'!F21+'7'!F21+'8'!F21+'9'!F21+'10'!F21+'11'!F21+'12'!F21+'13'!F21+'14'!F21+'15'!F21+'16'!F21+'17'!F21+'18'!F21+'19'!F21+'20'!F21+'21'!F21+'22'!F21+'23'!F21+'24'!F21+'25'!F21+'26'!F21+'27'!F21+'28'!F21+'29'!F21+'30'!F21+'31'!F21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G21" s="21">
         <f>'1'!G21+'2'!G21+'3'!G21+'4'!G21+'5'!G21+'6'!G21+'7'!G21+'8'!G21+'9'!G21+'10'!G21+'11'!G21+'12'!G21+'13'!G21+'14'!G21+'15'!G21+'16'!G21+'17'!G21+'18'!G21+'19'!G21+'20'!G21+'21'!G21+'22'!G21+'23'!G21+'24'!G21+'25'!G21+'26'!G21+'27'!G21+'28'!G21+'29'!G21+'30'!G21+'31'!G21</f>
@@ -53567,11 +53844,11 @@
       </c>
       <c r="H21" s="21">
         <f>'1'!H21+'2'!H21+'3'!H21+'4'!H21+'5'!H21+'6'!H21+'7'!H21+'8'!H21+'9'!H21+'10'!H21+'11'!H21+'12'!H21+'13'!H21+'14'!H21+'15'!H21+'16'!H21+'17'!H21+'18'!H21+'19'!H21+'20'!H21+'21'!H21+'22'!H21+'23'!H21+'24'!H21+'25'!H21+'26'!H21+'27'!H21+'28'!H21+'29'!H21+'30'!H21+'31'!H21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I21" s="21">
         <f>'1'!I21+'2'!I21+'3'!I21+'4'!I21+'5'!I21+'6'!I21+'7'!I21+'8'!I21+'9'!I21+'10'!I21+'11'!I21+'12'!I21+'13'!I21+'14'!I21+'15'!I21+'16'!I21+'17'!I21+'18'!I21+'19'!I21+'20'!I21+'21'!I21+'22'!I21+'23'!I21+'24'!I21+'25'!I21+'26'!I21+'27'!I21+'28'!I21+'29'!I21+'30'!I21+'31'!I21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="21">
         <f>'1'!J21+'2'!J21+'3'!J21+'4'!J21+'5'!J21+'6'!J21+'7'!J21+'8'!J21+'9'!J21+'10'!J21+'11'!J21+'12'!J21+'13'!J21+'14'!J21+'15'!J21+'16'!J21+'17'!J21+'18'!J21+'19'!J21+'20'!J21+'21'!J21+'22'!J21+'23'!J21+'24'!J21+'25'!J21+'26'!J21+'27'!J21+'28'!J21+'29'!J21+'30'!J21+'31'!J21</f>
@@ -53587,32 +53864,32 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>37729</v>
+        <v>47807</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>37729</v>
+        <v>48762</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>1037.5474999999999</v>
+        <v>1314.6925000000001</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
         <f>'1'!Q21+'2'!Q21+'3'!Q21+'4'!Q21+'5'!Q21+'6'!Q21+'7'!Q21+'8'!Q21+'9'!Q21+'10'!Q21+'11'!Q21+'12'!Q21+'13'!Q21+'14'!Q21+'15'!Q21+'16'!Q21+'17'!Q21+'18'!Q21+'19'!Q21+'20'!Q21+'21'!Q21+'22'!Q21+'23'!Q21+'24'!Q21+'25'!Q21+'26'!Q21+'27'!Q21+'28'!Q21+'29'!Q21+'30'!Q21+'31'!Q21</f>
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>36363.452499999999</v>
+        <v>47089.307500000003</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>358.4255</v>
+        <v>454.16649999999998</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>30.4255</v>
+        <v>96.166499999999985</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53627,7 +53904,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D22+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>116382</v>
+        <v>155657</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E22+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -53647,7 +53924,7 @@
       </c>
       <c r="I22" s="21">
         <f>'1'!I22+'2'!I22+'3'!I22+'4'!I22+'5'!I22+'6'!I22+'7'!I22+'8'!I22+'9'!I22+'10'!I22+'11'!I22+'12'!I22+'13'!I22+'14'!I22+'15'!I22+'16'!I22+'17'!I22+'18'!I22+'19'!I22+'20'!I22+'21'!I22+'22'!I22+'23'!I22+'24'!I22+'25'!I22+'26'!I22+'27'!I22+'28'!I22+'29'!I22+'30'!I22+'31'!I22</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J22" s="21">
         <f>'1'!J22+'2'!J22+'3'!J22+'4'!J22+'5'!J22+'6'!J22+'7'!J22+'8'!J22+'9'!J22+'10'!J22+'11'!J22+'12'!J22+'13'!J22+'14'!J22+'15'!J22+'16'!J22+'17'!J22+'18'!J22+'19'!J22+'20'!J22+'21'!J22+'22'!J22+'23'!J22+'24'!J22+'25'!J22+'26'!J22+'27'!J22+'28'!J22+'29'!J22+'30'!J22+'31'!J22</f>
@@ -53663,32 +53940,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>119182</v>
+        <v>158457</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>124912</v>
+        <v>165142</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>3277.5050000000001</v>
+        <v>4357.5675000000001</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q22+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!Q22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>900</v>
+        <v>1150</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>120734.495</v>
+        <v>159634.4325</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>1132.229</v>
+        <v>1505.3415</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>232.22900000000004</v>
+        <v>355.3415</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53703,7 +53980,7 @@
       </c>
       <c r="D23" s="21">
         <f>'1'!D23+'2'!D23+'3'!D23+'4'!D23+'5'!D23+'6'!D23+'7'!D23+'8'!D23+'9'!D23+'10'!D23+'11'!D23+'12'!D23+'13'!D23+'14'!D23+'15'!D23+'16'!D23+'17'!D23+'18'!D23+'19'!D23+'20'!D23+'21'!D23+'22'!D23+'23'!D23+'24'!D23+'25'!D23+'26'!D23+'27'!D23+'28'!D23+'29'!D23+'30'!D23+'31'!D23</f>
-        <v>63875</v>
+        <v>80292</v>
       </c>
       <c r="E23" s="21">
         <f>'1'!E23+'2'!E23+'3'!E23+'4'!E23+'5'!E23+'6'!E23+'7'!E23+'8'!E23+'9'!E23+'10'!E23+'11'!E23+'12'!E23+'13'!E23+'14'!E23+'15'!E23+'16'!E23+'17'!E23+'18'!E23+'19'!E23+'20'!E23+'21'!E23+'22'!E23+'23'!E23+'24'!E23+'25'!E23+'26'!E23+'27'!E23+'28'!E23+'29'!E23+'30'!E23+'31'!E23</f>
@@ -53739,32 +54016,32 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>63875</v>
+        <v>80292</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>66740</v>
+        <v>83157</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>1756.5625</v>
+        <v>2208.0300000000002</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26">
         <f>'1'!Q23+'2'!Q23+'3'!Q23+'4'!Q23+'5'!Q23+'6'!Q23+'7'!Q23+'8'!Q23+'9'!Q23+'10'!Q23+'11'!Q23+'12'!Q23+'13'!Q23+'14'!Q23+'15'!Q23+'16'!Q23+'17'!Q23+'18'!Q23+'19'!Q23+'20'!Q23+'21'!Q23+'22'!Q23+'23'!Q23+'24'!Q23+'25'!Q23+'26'!Q23+'27'!Q23+'28'!Q23+'29'!Q23+'30'!Q23+'31'!Q23</f>
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>64403.4375</v>
+        <v>80218.97</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>606.8125</v>
+        <v>762.774</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>26.8125</v>
+        <v>32.774000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53779,7 +54056,7 @@
       </c>
       <c r="D24" s="21">
         <f>'1'!D24+'2'!D24+'3'!D24+'4'!D24+'5'!D24+'6'!D24+'7'!D24+'8'!D24+'9'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>113386</v>
+        <v>147259</v>
       </c>
       <c r="E24" s="21">
         <f>'1'!E24+'2'!E24+'3'!E24+'4'!E24+'5'!E24+'6'!E24+'7'!E24+'8'!E24+'9'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
@@ -53795,11 +54072,11 @@
       </c>
       <c r="H24" s="21">
         <f>'1'!H24+'2'!H24+'3'!H24+'4'!H24+'5'!H24+'6'!H24+'7'!H24+'8'!H24+'9'!H24+'10'!H24+'11'!H24+'12'!H24+'13'!H24+'14'!H24+'15'!H24+'16'!H24+'17'!H24+'18'!H24+'19'!H24+'20'!H24+'21'!H24+'22'!H24+'23'!H24+'24'!H24+'25'!H24+'26'!H24+'27'!H24+'28'!H24+'29'!H24+'30'!H24+'31'!H24</f>
-        <v>770</v>
+        <v>970</v>
       </c>
       <c r="I24" s="21">
         <f>'1'!I24+'2'!I24+'3'!I24+'4'!I24+'5'!I24+'6'!I24+'7'!I24+'8'!I24+'9'!I24+'10'!I24+'11'!I24+'12'!I24+'13'!I24+'14'!I24+'15'!I24+'16'!I24+'17'!I24+'18'!I24+'19'!I24+'20'!I24+'21'!I24+'22'!I24+'23'!I24+'24'!I24+'25'!I24+'26'!I24+'27'!I24+'28'!I24+'29'!I24+'30'!I24+'31'!I24</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J24" s="21">
         <f>'1'!J24+'2'!J24+'3'!J24+'4'!J24+'5'!J24+'6'!J24+'7'!J24+'8'!J24+'9'!J24+'10'!J24+'11'!J24+'12'!J24+'13'!J24+'14'!J24+'15'!J24+'16'!J24+'17'!J24+'18'!J24+'19'!J24+'20'!J24+'21'!J24+'22'!J24+'23'!J24+'24'!J24+'25'!J24+'26'!J24+'27'!J24+'28'!J24+'29'!J24+'30'!J24+'31'!J24</f>
@@ -53807,7 +54084,7 @@
       </c>
       <c r="K24" s="21">
         <f>'1'!K24+'2'!K24+'3'!K24+'4'!K24+'5'!K24+'6'!K24+'7'!K24+'8'!K24+'9'!K24+'10'!K24+'11'!K24+'12'!K24+'13'!K24+'14'!K24+'15'!K24+'16'!K24+'17'!K24+'18'!K24+'19'!K24+'20'!K24+'21'!K24+'22'!K24+'23'!K24+'24'!K24+'25'!K24+'26'!K24+'27'!K24+'28'!K24+'29'!K24+'30'!K24+'31'!K24</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L24" s="21">
         <f>'1'!L24+'2'!L24+'3'!L24+'4'!L24+'5'!L24+'6'!L24+'7'!L24+'8'!L24+'9'!L24+'10'!L24+'11'!L24+'12'!L24+'13'!L24+'14'!L24+'15'!L24+'16'!L24+'17'!L24+'18'!L24+'19'!L24+'20'!L24+'21'!L24+'22'!L24+'23'!L24+'24'!L24+'25'!L24+'26'!L24+'27'!L24+'28'!L24+'29'!L24+'30'!L24+'31'!L24</f>
@@ -53815,32 +54092,32 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>136516</v>
+        <v>172189</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>143684</v>
+        <v>182132</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>3754.19</v>
+        <v>4735.1975000000002</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
         <f>'1'!Q24+'2'!Q24+'3'!Q24+'4'!Q24+'5'!Q24+'6'!Q24+'7'!Q24+'8'!Q24+'9'!Q24+'10'!Q24+'11'!Q24+'12'!Q24+'13'!Q24+'14'!Q24+'15'!Q24+'16'!Q24+'17'!Q24+'18'!Q24+'19'!Q24+'20'!Q24+'21'!Q24+'22'!Q24+'23'!Q24+'24'!Q24+'25'!Q24+'26'!Q24+'27'!Q24+'28'!Q24+'29'!Q24+'30'!Q24+'31'!Q24</f>
-        <v>1295</v>
+        <v>1531</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>138634.81</v>
+        <v>175865.80249999999</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>1296.902</v>
+        <v>1635.7954999999999</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>1.9020000000000437</v>
+        <v>104.79549999999995</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53855,7 +54132,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>57388</v>
+        <v>93896</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -53871,11 +54148,11 @@
       </c>
       <c r="H25" s="21">
         <f>'1'!H25+'2'!H25+'3'!H25+'4'!H25+'5'!H25+'6'!H25+'7'!H25+'8'!H25+'9'!H25+'10'!H25+'11'!H25+'12'!H25+'13'!H25+'14'!H25+'15'!H25+'16'!H25+'17'!H25+'18'!H25+'19'!H25+'20'!H25+'21'!H25+'22'!H25+'23'!H25+'24'!H25+'25'!H25+'26'!H25+'27'!H25+'28'!H25+'29'!H25+'30'!H25+'31'!H25</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I25" s="21">
         <f>'1'!I25+'2'!I25+'3'!I25+'4'!I25+'5'!I25+'6'!I25+'7'!I25+'8'!I25+'9'!I25+'10'!I25+'11'!I25+'12'!I25+'13'!I25+'14'!I25+'15'!I25+'16'!I25+'17'!I25+'18'!I25+'19'!I25+'20'!I25+'21'!I25+'22'!I25+'23'!I25+'24'!I25+'25'!I25+'26'!I25+'27'!I25+'28'!I25+'29'!I25+'30'!I25+'31'!I25</f>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J25" s="21">
         <f>'1'!J25+'2'!J25+'3'!J25+'4'!J25+'5'!J25+'6'!J25+'7'!J25+'8'!J25+'9'!J25+'10'!J25+'11'!J25+'12'!J25+'13'!J25+'14'!J25+'15'!J25+'16'!J25+'17'!J25+'18'!J25+'19'!J25+'20'!J25+'21'!J25+'22'!J25+'23'!J25+'24'!J25+'25'!J25+'26'!J25+'27'!J25+'28'!J25+'29'!J25+'30'!J25+'31'!J25</f>
@@ -53891,32 +54168,32 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>57388</v>
+        <v>100646</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>67848</v>
+        <v>115499</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>1578.17</v>
+        <v>2767.7649999999999</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
         <f>'1'!Q25+'2'!Q25+'3'!Q25+'4'!Q25+'5'!Q25+'6'!Q25+'7'!Q25+'8'!Q25+'9'!Q25+'10'!Q25+'11'!Q25+'12'!Q25+'13'!Q25+'14'!Q25+'15'!Q25+'16'!Q25+'17'!Q25+'18'!Q25+'19'!Q25+'20'!Q25+'21'!Q25+'22'!Q25+'23'!Q25+'24'!Q25+'25'!Q25+'26'!Q25+'27'!Q25+'28'!Q25+'29'!Q25+'30'!Q25+'31'!Q25</f>
-        <v>528</v>
+        <v>858</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>65741.83</v>
+        <v>111873.235</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>545.18600000000004</v>
+        <v>956.13699999999994</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>17.186000000000035</v>
+        <v>98.136999999999944</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53931,7 +54208,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>39830</v>
+        <v>71810</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E26+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -53967,32 +54244,32 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>40370</v>
+        <v>72350</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>48965</v>
+        <v>80945</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>1110.175</v>
+        <v>1989.625</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
         <f>'1'!Q26+'2'!Q26+'3'!Q26+'4'!Q26+'5'!Q26+'6'!Q26+'7'!Q26+'8'!Q26+'9'!Q26+'10'!Q26+'11'!Q26+'12'!Q26+'13'!Q26+'14'!Q26+'15'!Q26+'16'!Q26+'17'!Q26+'18'!Q26+'19'!Q26+'20'!Q26+'21'!Q26+'22'!Q26+'23'!Q26+'24'!Q26+'25'!Q26+'26'!Q26+'27'!Q26+'28'!Q26+'29'!Q26+'30'!Q26+'31'!Q26</f>
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>47341.824999999997</v>
+        <v>78392.375</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>383.51499999999999</v>
+        <v>687.32499999999993</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>-129.48500000000001</v>
+        <v>124.32499999999993</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -54007,7 +54284,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>45601</v>
+        <v>82656</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -54027,7 +54304,7 @@
       </c>
       <c r="I27" s="21">
         <f>'1'!I27+'2'!I27+'3'!I27+'4'!I27+'5'!I27+'6'!I27+'7'!I27+'8'!I27+'9'!I27+'10'!I27+'11'!I27+'12'!I27+'13'!I27+'14'!I27+'15'!I27+'16'!I27+'17'!I27+'18'!I27+'19'!I27+'20'!I27+'21'!I27+'22'!I27+'23'!I27+'24'!I27+'25'!I27+'26'!I27+'27'!I27+'28'!I27+'29'!I27+'30'!I27+'31'!I27</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J27" s="21">
         <f>'1'!J27+'2'!J27+'3'!J27+'4'!J27+'5'!J27+'6'!J27+'7'!J27+'8'!J27+'9'!J27+'10'!J27+'11'!J27+'12'!J27+'13'!J27+'14'!J27+'15'!J27+'16'!J27+'17'!J27+'18'!J27+'19'!J27+'20'!J27+'21'!J27+'22'!J27+'23'!J27+'24'!J27+'25'!J27+'26'!J27+'27'!J27+'28'!J27+'29'!J27+'30'!J27+'31'!J27</f>
@@ -54043,32 +54320,32 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>45601</v>
+        <v>82656</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>46556</v>
+        <v>85521</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>1254.0274999999999</v>
+        <v>2273.04</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
         <f>'1'!Q27+'2'!Q27+'3'!Q27+'4'!Q27+'5'!Q27+'6'!Q27+'7'!Q27+'8'!Q27+'9'!Q27+'10'!Q27+'11'!Q27+'12'!Q27+'13'!Q27+'14'!Q27+'15'!Q27+'16'!Q27+'17'!Q27+'18'!Q27+'19'!Q27+'20'!Q27+'21'!Q27+'22'!Q27+'23'!Q27+'24'!Q27+'25'!Q27+'26'!Q27+'27'!Q27+'28'!Q27+'29'!Q27+'30'!Q27+'31'!Q27</f>
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>44701.972500000003</v>
+        <v>81947.960000000006</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>433.20949999999999</v>
+        <v>785.23199999999997</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>-166.79050000000001</v>
+        <v>-514.76800000000003</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -54079,15 +54356,15 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>1498211</v>
+        <v>2045496</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>1540</v>
+        <v>1890</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>2100</v>
+        <v>2860</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -54095,19 +54372,19 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>5520</v>
+        <v>8510</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>404</v>
+        <v>555</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -54115,15 +54392,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>1599691</v>
+        <v>2188486</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>1696053</v>
+        <v>2318976</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>43991.502500000002</v>
+        <v>60183.364999999998</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54131,19 +54408,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>15295</v>
+        <v>20163</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>1636766.4975000001</v>
+        <v>2238629.6349999998</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>15197.064499999999</v>
+        <v>20790.616999999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-97.935500000000104</v>
+        <v>627.61699999999928</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54154,15 +54431,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>557976</v>
+        <v>634067</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4560</v>
+        <v>4210</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8570</v>
+        <v>12810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -54170,19 +54447,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>23620</v>
+        <v>35630</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>860</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -59823,8 +60100,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60265,7 +60542,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="29">
-        <v>4936</v>
+        <v>5450</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -60277,15 +60554,15 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>4936</v>
+        <v>5450</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>4936</v>
+        <v>5450</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>135.74</v>
+        <v>149.875</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
@@ -60293,15 +60570,15 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>4760.26</v>
+        <v>5260.125</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>46.891999999999996</v>
+        <v>51.774999999999999</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>6.8919999999999959</v>
+        <v>11.774999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -61138,7 +61415,7 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>197783</v>
+        <v>198297</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -61174,15 +61451,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>201543</v>
+        <v>202057</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>214695</v>
+        <v>215209</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>5542.4324999999999</v>
+        <v>5556.5674999999992</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -61194,15 +61471,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>207070.5675</v>
+        <v>207570.4325</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1914.6585</v>
+        <v>1919.5415</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-167.3415</v>
+        <v>-162.45850000000002</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -61213,7 +61490,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>515312</v>
+        <v>514798</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -61492,7 +61769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61585,7 +61862,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>515312</v>
+        <v>514798</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
@@ -62304,7 +62581,9 @@
       <c r="C18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29">
+        <v>12859</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -62315,29 +62594,31 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12859</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12859</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>353.6225</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>100</v>
+      </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12405.377500000001</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>122.1605</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22.160499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -62664,7 +62945,9 @@
       <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29">
+        <v>15000</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -62675,29 +62958,31 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="26">
+        <v>120</v>
+      </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14467.5</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -62760,40 +63045,46 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>19739</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>10</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19739</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21649</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>542.82249999999999</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="41">
+        <v>100</v>
+      </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21006.177500000002</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>187.5205</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>87.520499999999998</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -62804,7 +63095,7 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>240205</v>
+        <v>287803</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -62824,7 +63115,7 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
@@ -62840,15 +63131,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>252285</v>
+        <v>299883</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>256815</v>
+        <v>306323</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>6937.8375000000005</v>
+        <v>8246.7824999999993</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -62856,19 +63147,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>1928</v>
+        <v>2248</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>247949.16250000001</v>
+        <v>295828.21749999997</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2396.7075</v>
+        <v>2848.8885</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>468.70749999999987</v>
+        <v>600.88849999999991</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -62879,7 +63170,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>586795</v>
+        <v>538683</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -62899,7 +63190,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -63158,7 +63449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63251,7 +63542,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>586795</v>
+        <v>538683</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
@@ -63271,7 +63562,7 @@
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
@@ -64429,7 +64720,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>586795</v>
+        <v>538683</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -64449,7 +64740,7 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
